--- a/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
+++ b/Descargas/R15_7º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Marzo.xlsx
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="B75" s="65">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -1601,7 +1601,7 @@
         </is>
       </c>
       <c r="B140" s="65">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
